--- a/ModifiedData/Cu_sys_intro.xlsx
+++ b/ModifiedData/Cu_sys_intro.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20703"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="23" documentId="11_457A9821DAEAE23716098A17172284ABEC337A78" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{1E9335B1-E82F-4848-80B9-77640C20EEFF}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="xS vs FeS domain" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179020"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="93">
   <si>
     <t>Reference</t>
   </si>
@@ -348,11 +347,14 @@
   <si>
     <t>E17</t>
   </si>
+  <si>
+    <t>X</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="13">
     <font>
       <sz val="11"/>
@@ -639,7 +641,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1250,7 +1252,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-40A6-4A43-BFD8-88B681CEEF4F}"/>
             </c:ext>
@@ -1537,7 +1539,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5B4B-4CDA-A48B-3895B45B11C4}"/>
             </c:ext>
@@ -1630,7 +1632,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5B4B-4CDA-A48B-3895B45B11C4}"/>
             </c:ext>
@@ -1735,7 +1737,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-5B4B-4CDA-A48B-3895B45B11C4}"/>
             </c:ext>
@@ -1870,7 +1872,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-5B4B-4CDA-A48B-3895B45B11C4}"/>
             </c:ext>
@@ -1939,7 +1941,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-5B4B-4CDA-A48B-3895B45B11C4}"/>
             </c:ext>
@@ -1953,11 +1955,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1753792175"/>
-        <c:axId val="1753795919"/>
+        <c:axId val="129767256"/>
+        <c:axId val="129768040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1753792175"/>
+        <c:axId val="129767256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2014,12 +2016,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1753795919"/>
+        <c:crossAx val="129768040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1753795919"/>
+        <c:axId val="129768040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2076,7 +2078,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1753792175"/>
+        <c:crossAx val="129767256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2098,6 +2100,7 @@
         <c:idx val="6"/>
         <c:delete val="1"/>
       </c:legendEntry>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2740,7 +2743,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3023,19 +3026,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="G65" sqref="G65:G73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="34.85546875" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="29"/>
-    <col min="5" max="5" width="14.5703125" style="25" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="9"/>
+    <col min="1" max="1" width="50.21875" customWidth="1"/>
+    <col min="3" max="4" width="9.109375" style="29"/>
+    <col min="5" max="5" width="14.5546875" style="25" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3058,7 +3061,7 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3160,7 +3163,9 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="B6" s="14" t="s">
         <v>13</v>
       </c>
@@ -3989,14 +3994,14 @@
         <v>1.03</v>
       </c>
       <c r="D41" s="29">
-        <f>1/C41</f>
+        <f t="shared" ref="D41:D54" si="10">1/C41</f>
         <v>0.970873786407767</v>
       </c>
       <c r="E41" s="24">
         <v>-0.31309181975465999</v>
       </c>
       <c r="F41" s="9">
-        <f>LN(D41)</f>
+        <f t="shared" ref="F41:F54" si="11">LN(D41)</f>
         <v>-2.9558802241544391E-2</v>
       </c>
       <c r="G41">
@@ -4012,14 +4017,14 @@
         <v>1.01</v>
       </c>
       <c r="D42" s="29">
-        <f>1/C42</f>
+        <f t="shared" si="10"/>
         <v>0.99009900990099009</v>
       </c>
       <c r="E42" s="24">
         <v>-0.35199992317475925</v>
       </c>
       <c r="F42" s="9">
-        <f>LN(D42)</f>
+        <f t="shared" si="11"/>
         <v>-9.950330853168092E-3</v>
       </c>
       <c r="G42">
@@ -4037,14 +4042,14 @@
         <v>0.9</v>
       </c>
       <c r="D43" s="29">
-        <f>1/C43</f>
+        <f t="shared" si="10"/>
         <v>1.1111111111111112</v>
       </c>
       <c r="E43" s="24">
         <v>-0.25604793076192922</v>
       </c>
       <c r="F43" s="9">
-        <f>LN(D43)</f>
+        <f t="shared" si="11"/>
         <v>0.10536051565782635</v>
       </c>
       <c r="G43">
@@ -4062,14 +4067,14 @@
         <v>1.2</v>
       </c>
       <c r="D44" s="29">
-        <f>1/C44</f>
+        <f t="shared" si="10"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="E44" s="24">
         <v>-0.25414602903459477</v>
       </c>
       <c r="F44" s="9">
-        <f>LN(D44)</f>
+        <f t="shared" si="11"/>
         <v>-0.18232155679395459</v>
       </c>
       <c r="G44">
@@ -4085,14 +4090,14 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="D45" s="29">
-        <f>1/C45</f>
+        <f t="shared" si="10"/>
         <v>0.86206896551724144</v>
       </c>
       <c r="E45" s="24">
         <v>-0.16299231010435855</v>
       </c>
       <c r="F45" s="9">
-        <f>LN(D45)</f>
+        <f t="shared" si="11"/>
         <v>-0.14842000511827322</v>
       </c>
       <c r="G45">
@@ -4108,14 +4113,14 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="D46" s="29">
-        <f>1/C46</f>
+        <f t="shared" si="10"/>
         <v>0.9009009009009008</v>
       </c>
       <c r="E46" s="24">
         <v>-0.12200507328253608</v>
       </c>
       <c r="F46" s="9">
-        <f>LN(D46)</f>
+        <f t="shared" si="11"/>
         <v>-0.10436001532424288</v>
       </c>
       <c r="G46">
@@ -4131,14 +4136,14 @@
         <v>0.99</v>
       </c>
       <c r="D47" s="29">
-        <f>1/C47</f>
+        <f t="shared" si="10"/>
         <v>1.0101010101010102</v>
       </c>
       <c r="E47" s="24">
         <v>-8.4529547150020548E-2</v>
       </c>
       <c r="F47" s="9">
-        <f>LN(D47)</f>
+        <f t="shared" si="11"/>
         <v>1.0050335853501506E-2</v>
       </c>
       <c r="G47">
@@ -4156,14 +4161,14 @@
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="D48" s="29">
-        <f>1/C48</f>
+        <f t="shared" si="10"/>
         <v>17.857142857142858</v>
       </c>
       <c r="E48" s="24">
         <v>-2.0019040820113601</v>
       </c>
       <c r="F48" s="9">
-        <f>LN(D48)</f>
+        <f t="shared" si="11"/>
         <v>2.8824035882469881</v>
       </c>
       <c r="G48">
@@ -4179,14 +4184,14 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D49" s="29">
-        <f>1/C49</f>
+        <f t="shared" si="10"/>
         <v>14.285714285714285</v>
       </c>
       <c r="E49" s="24">
         <v>-1.8595433707294524</v>
       </c>
       <c r="F49" s="9">
-        <f>LN(D49)</f>
+        <f t="shared" si="11"/>
         <v>2.6592600369327779</v>
       </c>
       <c r="G49">
@@ -4202,14 +4207,14 @@
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="D50" s="29">
-        <f>1/C50</f>
+        <f t="shared" si="10"/>
         <v>13.888888888888889</v>
       </c>
       <c r="E50" s="24">
         <v>-1.7213643877406237</v>
       </c>
       <c r="F50" s="9">
-        <f>LN(D50)</f>
+        <f t="shared" si="11"/>
         <v>2.6310891599660819</v>
       </c>
       <c r="G50">
@@ -4227,14 +4232,14 @@
         <v>1.41</v>
       </c>
       <c r="D51" s="29">
-        <f>1/C51</f>
+        <f t="shared" si="10"/>
         <v>0.70921985815602839</v>
       </c>
       <c r="E51" s="24">
         <v>-0.34528172058084899</v>
       </c>
       <c r="F51" s="9">
-        <f>LN(D51)</f>
+        <f t="shared" si="11"/>
         <v>-0.34358970439007686</v>
       </c>
       <c r="G51">
@@ -4252,14 +4257,14 @@
         <v>1.32</v>
       </c>
       <c r="D52" s="29">
-        <f>1/C52</f>
+        <f t="shared" si="10"/>
         <v>0.75757575757575757</v>
       </c>
       <c r="E52" s="24">
         <v>-0.32105053988227406</v>
       </c>
       <c r="F52" s="9">
-        <f>LN(D52)</f>
+        <f t="shared" si="11"/>
         <v>-0.2776317365982795</v>
       </c>
       <c r="G52">
@@ -4275,14 +4280,14 @@
         <v>1.6</v>
       </c>
       <c r="D53" s="29">
-        <f>1/C53</f>
+        <f t="shared" si="10"/>
         <v>0.625</v>
       </c>
       <c r="E53" s="24">
         <v>-0.30165409629311157</v>
       </c>
       <c r="F53" s="9">
-        <f>LN(D53)</f>
+        <f t="shared" si="11"/>
         <v>-0.47000362924573558</v>
       </c>
       <c r="G53">
@@ -4298,14 +4303,14 @@
         <v>1.3</v>
       </c>
       <c r="D54" s="29">
-        <f>1/C54</f>
+        <f t="shared" si="10"/>
         <v>0.76923076923076916</v>
       </c>
       <c r="E54" s="24">
         <v>-0.25382839429713666</v>
       </c>
       <c r="F54" s="9">
-        <f>LN(D54)</f>
+        <f t="shared" si="11"/>
         <v>-0.26236426446749112</v>
       </c>
       <c r="G54">
@@ -4530,14 +4535,14 @@
         <v>0.73</v>
       </c>
       <c r="D64" s="29">
-        <f t="shared" ref="D64:D73" si="10">1/C64</f>
+        <f t="shared" ref="D64:D73" si="12">1/C64</f>
         <v>1.3698630136986301</v>
       </c>
       <c r="E64" s="24">
         <v>-5.1716683185269667E-2</v>
       </c>
       <c r="F64" s="9">
-        <f t="shared" ref="F64:F73" si="11">LN(D64)</f>
+        <f t="shared" ref="F64:F73" si="13">LN(D64)</f>
         <v>0.31471074483970018</v>
       </c>
       <c r="G64">
@@ -4553,14 +4558,14 @@
         <v>0.23</v>
       </c>
       <c r="D65" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>4.3478260869565215</v>
       </c>
       <c r="E65" s="24">
         <v>-0.59953088802459731</v>
       </c>
       <c r="F65" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.4696759700589417</v>
       </c>
       <c r="G65">
@@ -4578,14 +4583,14 @@
         <v>0.15</v>
       </c>
       <c r="D66" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>6.666666666666667</v>
       </c>
       <c r="E66" s="24">
         <v>-0.98638764955993763</v>
       </c>
       <c r="F66" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.8971199848858813</v>
       </c>
       <c r="G66">
@@ -4603,14 +4608,14 @@
         <v>0.31</v>
       </c>
       <c r="D67" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3.2258064516129035</v>
       </c>
       <c r="E67" s="24">
         <v>-0.35350073586408354</v>
       </c>
       <c r="F67" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.1711829815029453</v>
       </c>
       <c r="G67">
@@ -4628,14 +4633,14 @@
         <v>0.17</v>
       </c>
       <c r="D68" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>5.8823529411764701</v>
       </c>
       <c r="E68" s="24">
         <v>-1.0760111708047901</v>
       </c>
       <c r="F68" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.7719568419318752</v>
       </c>
       <c r="G68">
@@ -4651,14 +4656,14 @@
         <v>0.22</v>
       </c>
       <c r="D69" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>4.5454545454545459</v>
       </c>
       <c r="E69" s="24">
         <v>-0.4800077057788566</v>
       </c>
       <c r="F69" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.5141277326297755</v>
       </c>
       <c r="G69">
@@ -4674,14 +4679,14 @@
         <v>0.41</v>
       </c>
       <c r="D70" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.4390243902439024</v>
       </c>
       <c r="E70" s="24">
         <v>-9.2811035688959653E-2</v>
       </c>
       <c r="F70" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.89159811928378352</v>
       </c>
       <c r="G70">
@@ -4697,14 +4702,14 @@
         <v>0.52</v>
       </c>
       <c r="D71" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.9230769230769229</v>
       </c>
       <c r="E71" s="24">
         <v>-4.7822023151585437E-2</v>
       </c>
       <c r="F71" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.65392646740666394</v>
       </c>
       <c r="G71">
@@ -4720,14 +4725,14 @@
         <v>0.2</v>
       </c>
       <c r="D72" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="E72" s="24">
         <v>-1.3323593868995454</v>
       </c>
       <c r="F72" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.6094379124341003</v>
       </c>
       <c r="G72">
@@ -4743,14 +4748,14 @@
         <v>0.17</v>
       </c>
       <c r="D73" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>5.8823529411764701</v>
       </c>
       <c r="E73" s="24">
         <v>-1.0837377408194213</v>
       </c>
       <c r="F73" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.7719568419318752</v>
       </c>
       <c r="G73">
@@ -4764,24 +4769,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
